--- a/data/raw/Lobster_Ymaze.xlsx
+++ b/data/raw/Lobster_Ymaze.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hoffman\darkz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hoffman\darkz\analysis-hoffman-lobster\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DE8B6-ADF8-4D24-A9A2-CE37056F62ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12496A61-8255-4B80-8AE9-7EE80986543C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,8 +761,8 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13:J13"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L156" sqref="L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6847,7 +6847,7 @@
         <v>52</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>13</v>
@@ -6886,7 +6886,7 @@
         <v>216</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>14</v>
@@ -6925,7 +6925,7 @@
         <v>569</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J158" s="7" t="s">
         <v>18</v>
@@ -6964,7 +6964,7 @@
         <v>379</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J159" s="7" t="s">
         <v>13</v>
